--- a/biology/Botanique/Érable/Érable.xlsx
+++ b/biology/Botanique/Érable/Érable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable</t>
+          <t>Érable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer
 Acer, les érables, est un genre de plantes à fleurs de la famille des Sapindacées selon la classification APG III (autrefois, selon la classification de Cronquist, de celle des Acéracées), dans l'ordre des Sapindales. C'est le type de sa famille. Ce sont des arbres et des arbustes. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable</t>
+          <t>Érable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme latin acer ne s'est pas imposé dans le bas latin de Gaule, comme c'est souvent le cas pour les noms d'arbres (cf. if, chêne, etc.), contrairement à l'italien acero ou à l'espagnol arce.
-Le gallo-roman a un terme hybride acerabulus, dont la forme d'oïl est attestée dans le Roman de la Rose : arable. Le premier élément s'analyse bien comme le terme latin acer, mais le second -abulus est probablement celtique selon Vendryes[2], repris par Xavier Delamarre[3] qui le font venir du gaulois abalo-, aballo-, pomme, pommier (cf. Glossaire de Vienne : avallo 'poma').
-acerabulus signifie donc mot-à-mot « érable-pommier », formation comparable à celles du celtique insulaire, par exemple : vieil irlandais fic-abull, figuier ou gallois cri-afol, sorbier des oiseaux[4]. L'occitan languedocien conserve aussi par endroits un terme issu du même étymon hybride : argelabre, même si la forme la plus répandue est directement issue du latin avec aseron en languedocien (formé de acer + suffixe diminutif -onis) et en gascon avec aseròu (formé de acer + suffixe diminutif -olum)[5],[6].
-Le latin acer (« pointu, aigu, perçant ») est un proche parent d’acus, aiguille, d’acutus, aigu, mots latins basés sur la racine indo-européenne *ak que l'on retrouve aussi dans l'allemand Ahorn, et qui fait référence aux feuilles palmées à lobes pointus des érables. Cette étymologie renverrait donc à la signification littérale d'« érable-pommier » ou d'« arbre aux feuilles pointues »[7].
+Le gallo-roman a un terme hybride acerabulus, dont la forme d'oïl est attestée dans le Roman de la Rose : arable. Le premier élément s'analyse bien comme le terme latin acer, mais le second -abulus est probablement celtique selon Vendryes, repris par Xavier Delamarre qui le font venir du gaulois abalo-, aballo-, pomme, pommier (cf. Glossaire de Vienne : avallo 'poma').
+acerabulus signifie donc mot-à-mot « érable-pommier », formation comparable à celles du celtique insulaire, par exemple : vieil irlandais fic-abull, figuier ou gallois cri-afol, sorbier des oiseaux. L'occitan languedocien conserve aussi par endroits un terme issu du même étymon hybride : argelabre, même si la forme la plus répandue est directement issue du latin avec aseron en languedocien (formé de acer + suffixe diminutif -onis) et en gascon avec aseròu (formé de acer + suffixe diminutif -olum),.
+Le latin acer (« pointu, aigu, perçant ») est un proche parent d’acus, aiguille, d’acutus, aigu, mots latins basés sur la racine indo-européenne *ak que l'on retrouve aussi dans l'allemand Ahorn, et qui fait référence aux feuilles palmées à lobes pointus des érables. Cette étymologie renverrait donc à la signification littérale d'« érable-pommier » ou d'« arbre aux feuilles pointues ».
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rable</t>
+          <t>Érable</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles opposées, pétiolées et palmatilobées, simples pour la majorité des espèces, composées chez Acer griseum et Acer negundo.
 Calice : 5 sépales, à segments imbriqués.
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rable</t>
+          <t>Érable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,13 +615,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usages alimentaires
-Les jeunes feuilles (tendres et translucides) d'érable plane et d'érable sycomore sont comestibles mais celles du sycomore ont mauvais goût. L'infusion de leurs feuilles est utilisée en breuvage[8].
+          <t>Usages alimentaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles (tendres et translucides) d'érable plane et d'érable sycomore sont comestibles mais celles du sycomore ont mauvais goût. L'infusion de leurs feuilles est utilisée en breuvage.
 Plusieurs variétés d'érables produisent des samares comestibles. 
-Selon une étude ethnobotanique et du patois local, faite par Françoise et Grégoire Nicollier à Bagnes (France) et publiée en 1984, de même que pour le peuplier blanc et le peuplier d'Italie, « les feuilles, mélangées à du son, de la paille et des feuilles d'érable, constituent un fourrage pour les vaches »[9].
+Selon une étude ethnobotanique et du patois local, faite par Françoise et Grégoire Nicollier à Bagnes (France) et publiée en 1984, de même que pour le peuplier blanc et le peuplier d'Italie, « les feuilles, mélangées à du son, de la paille et des feuilles d'érable, constituent un fourrage pour les vaches ».
 Certaines espèces produisent du sirop d'érable.
-Autres usages
-Le bois d'érable est apprécié en lutherie. Il est notamment employé dans les guitares et basses électriques (principalement dans les manches et les tables) et dans les kits de batterie haut de gamme (ex. : Pearl Masters). L'érable sucrier peut être utilisé dans la confection de certaines paires de baguettes de batterie.
 </t>
         </is>
       </c>
@@ -616,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89rable</t>
+          <t>Érable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,21 +650,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aspects culturels</t>
+          <t>Utilisations</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au Canada
-La feuille d'érable qui figure sur le drapeau du Canada sous la forme d'une figure stylisée à onze pointes est celle de l'érable à sucre (Acer saccharum Marsh., 1785)[10]. Ce drapeau a remplacé le pavillon rouge (red ensign) le 15 février 1965.
-Au Japon
-Au Japon, on apprécie particulièrement l'érable palmé et, chaque automne, les Japonais vont admirer leurs couleurs flamboyantes pendant la période qu'ils appellent « momijigari » (c’est-à-dire « admirer les érables »).
-Dans le jeu de cartes traditionnel japonais Hanafuda, des feuilles d'érable sont représentées sur la série des 4 cartes du mois d'octobre.
-En France
-Dans le folklore français, les « noces d'érable » symbolisent les 58 ans de mariage.
-Légendes et traditions
-Dans la mythologie grecque, l'Érable est dédié à Phobos, dieu de l'Épouvante, fils d'Arès, dieu de la guerre et frère de Deimos, dieu de la frayeur.
-L'Illiade rapporte que le cheval de Troie fut fabriqué en Érable. Dans l'astrologie celtique, l'érable représente quelqu'un débordant d'imagination et d'originalité, timide et réservé[11]...
+          <t>Autres usages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois d'érable est apprécié en lutherie. Il est notamment employé dans les guitares et basses électriques (principalement dans les manches et les tables) et dans les kits de batterie haut de gamme (ex. : Pearl Masters). L'érable sucrier peut être utilisé dans la confection de certaines paires de baguettes de batterie.
 </t>
         </is>
       </c>
@@ -656,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89rable</t>
+          <t>Érable</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,12 +687,164 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille d'érable qui figure sur le drapeau du Canada sous la forme d'une figure stylisée à onze pointes est celle de l'érable à sucre (Acer saccharum Marsh., 1785). Ce drapeau a remplacé le pavillon rouge (red ensign) le 15 février 1965.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Érable</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au Japon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, on apprécie particulièrement l'érable palmé et, chaque automne, les Japonais vont admirer leurs couleurs flamboyantes pendant la période qu'ils appellent « momijigari » (c’est-à-dire « admirer les érables »).
+Dans le jeu de cartes traditionnel japonais Hanafuda, des feuilles d'érable sont représentées sur la série des 4 cartes du mois d'octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Érable</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le folklore français, les « noces d'érable » symbolisent les 58 ans de mariage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Érable</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Légendes et traditions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mythologie grecque, l'Érable est dédié à Phobos, dieu de l'Épouvante, fils d'Arès, dieu de la guerre et frère de Deimos, dieu de la frayeur.
+L'Illiade rapporte que le cheval de Troie fut fabriqué en Érable. Dans l'astrologie celtique, l'érable représente quelqu'un débordant d'imagination et d'originalité, timide et réservé...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Érable</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 août 2010)[12] :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 août 2010) :
 Acer lanum
 Acer acuminatum
 Acer albopurpurascens
@@ -787,31 +955,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89rable</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89rable</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Érable</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Article détaillé sur la classification des érables.
 </t>
